--- a/public/files/template_elective (3).xlsx
+++ b/public/files/template_elective (3).xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5964"/>
   </bookViews>
   <sheets>
-    <sheet name="Excel sheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Excel sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Teacher</t>
   </si>
@@ -29,27 +33,30 @@
     <t>automatically. You are only required to fill in the highlighted sections.</t>
   </si>
   <si>
+    <t>Grade level</t>
+  </si>
+  <si>
+    <t>High school teachers, hover here for a special note</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>If you split a class…</t>
+  </si>
+  <si>
+    <t>1st Semester</t>
+  </si>
+  <si>
+    <t>2nd Semester</t>
+  </si>
+  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>High school teachers, hover here for a special note</t>
-  </si>
-  <si>
-    <t>If you split a class…</t>
-  </si>
-  <si>
-    <t>1st Semester</t>
-  </si>
-  <si>
-    <t>2nd Semester</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Academic</t>
-  </si>
-  <si>
     <t>Student_ID</t>
   </si>
   <si>
@@ -62,6 +69,12 @@
     <t>Q2</t>
   </si>
   <si>
+    <t>Sum 1</t>
+  </si>
+  <si>
+    <t>Sem 1</t>
+  </si>
+  <si>
     <t>Q3</t>
   </si>
   <si>
@@ -77,52 +90,103 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>fluk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tw Cen MT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC300"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9F68"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,132 +476,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="87.121582" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
-    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
-    <col min="7" max="7" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="5">
+        <v>441202</v>
+      </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1111111114</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="" right="" top="" bottom="" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>